--- a/src/test/resources/excel.xlsx
+++ b/src/test/resources/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Przemek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProgramowanie\Nauka\Travels\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E622F-EA5C-4A20-895E-CBC596070487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E163B-68BE-471D-A9A4-FA16B8247323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,16 @@
     <t>hotel name</t>
   </si>
   <si>
-    <t xml:space="preserve">Dubai </t>
-  </si>
-  <si>
-    <t>Dubai Hotel</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
-    <t>London Hotel</t>
+    <t>Grand Plaza Apartments</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Jumeirah Beach Hotel</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,18 +381,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
